--- a/Резы/Респа для ПЕ-71б на 2019 год.xlsx
+++ b/Резы/Респа для ПЕ-71б на 2019 год.xlsx
@@ -694,7 +694,7 @@
     <col width="70.59999999999999" customWidth="1" min="6" max="6"/>
     <col width="92.34999999999999" customWidth="1" min="7" max="7"/>
     <col width="79.3" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
     <col width="29.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -1025,8 +1025,10 @@
           <t>Функциональное и логическое программирование: ПР (общ)</t>
         </is>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>308</v>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>308, ФЗК_зал</t>
+        </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -1057,8 +1059,11 @@
           <t>Методы оптимизации: лекция (общ)</t>
         </is>
       </c>
-      <c r="I11" s="3" t="n">
-        <v>213</v>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>213
+308</t>
+        </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -1252,7 +1257,8 @@
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>АКТ_зал
+205</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
@@ -1779,8 +1785,10 @@
         </is>
       </c>
       <c r="G10" s="5" t="n"/>
-      <c r="H10" s="3" t="n">
-        <v>308</v>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>ФЗК_зал</t>
+        </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
@@ -1807,7 +1815,7 @@
       <c r="F11" s="13" t="n"/>
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="3" t="n">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
@@ -1994,10 +2002,8 @@
           <t>Иностранный язык: ПР (1)</t>
         </is>
       </c>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
+      <c r="H17" s="15" t="n">
+        <v>205</v>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
@@ -2526,8 +2532,7 @@
       <c r="H10" s="5" t="n"/>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>308
-ФЗК_зал</t>
+          <t>ФЗК_зал</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -2557,7 +2562,7 @@
       <c r="G11" s="13" t="n"/>
       <c r="H11" s="5" t="n"/>
       <c r="I11" s="3" t="n">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -2620,11 +2625,8 @@
           <t>ЭВМ и периферийные устройства: ПР (общ)</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>308
-202</t>
-        </is>
+      <c r="I13" s="3" t="n">
+        <v>202</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -2749,10 +2751,8 @@
           <t>Иностранный язык: ПР (2)</t>
         </is>
       </c>
-      <c r="I16" s="15" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
+      <c r="I16" s="15" t="n">
+        <v>205</v>
       </c>
       <c r="J16" s="15" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
       <c r="F10" s="13" t="n"/>
       <c r="G10" s="5" t="n"/>
       <c r="H10" s="3" t="n">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
@@ -3423,10 +3423,8 @@
       </c>
       <c r="F15" s="17" t="n"/>
       <c r="G15" s="18" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>АКТ_зал</t>
-        </is>
+      <c r="H15" s="15" t="n">
+        <v>205</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>

--- a/Резы/Респа для ПЕ-71б на 2019 год.xlsx
+++ b/Резы/Респа для ПЕ-71б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,17 +114,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -166,7 +166,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -187,63 +187,63 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -695,7 +695,7 @@
     <col width="92.34999999999999" customWidth="1" min="7" max="7"/>
     <col width="79.3" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="26.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -1257,13 +1257,13 @@
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 205</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.
+          <t>Мерзоцид Г.Ч.
 Миннегалиева Т.В.</t>
         </is>
       </c>
